--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.1650393428932406</v>
+        <v>1.1650393465154725</v>
       </c>
       <c r="C2">
-        <v>1.9762126096888253</v>
+        <v>1.9762126060515279</v>
       </c>
       <c r="D2">
-        <v>3.0389704279023606</v>
+        <v>3.0389704186329514</v>
       </c>
       <c r="E2">
-        <v>4.8826287834640603</v>
+        <v>4.8826287794857315</v>
       </c>
       <c r="F2">
-        <v>1.9608721338408168</v>
+        <v>1.9608721309303676</v>
       </c>
       <c r="G2">
-        <v>1.1497416633320707</v>
+        <v>1.1497416614765403</v>
       </c>
       <c r="H2">
-        <v>1.5636285932544958</v>
+        <v>1.5636285894789783</v>
       </c>
       <c r="I2">
-        <v>2.0572129824387417</v>
+        <v>2.057212982200292</v>
       </c>
       <c r="J2">
-        <v>3.0767349925495577</v>
+        <v>3.0767349836944562</v>
       </c>
       <c r="K2">
-        <v>0.93307030290619841</v>
+        <v>0.93307030119624046</v>
       </c>
       <c r="L2">
-        <v>0.6129317982126159</v>
+        <v>0.6129317945796352</v>
       </c>
       <c r="M2">
-        <v>-0.82209233089841505</v>
+        <v>-0.82209233016123284</v>
       </c>
       <c r="N2">
-        <v>2.3721938343300732</v>
+        <v>2.3721938322889886</v>
       </c>
       <c r="O2">
-        <v>1.9846122638342751</v>
+        <v>1.9846122566735829</v>
       </c>
       <c r="P2">
-        <v>3.1602719639576069</v>
+        <v>3.160271966602556</v>
       </c>
       <c r="Q2">
-        <v>0.31835209335919346</v>
+        <v>0.31835208973956419</v>
       </c>
       <c r="R2">
-        <v>-0.77102396983930832</v>
+        <v>-0.77102397423476254</v>
       </c>
       <c r="S2">
-        <v>4.1073062894344083</v>
+        <v>4.1073062901827848</v>
       </c>
       <c r="T2">
-        <v>3.4238426913709881</v>
+        <v>3.4238426938272477</v>
       </c>
       <c r="U2">
-        <v>0.49168942622972073</v>
+        <v>0.49168942105374952</v>
       </c>
       <c r="V2">
-        <v>1.4382105853523011</v>
+        <v>1.4382105815049244</v>
       </c>
       <c r="W2">
-        <v>-1.0406789847405933</v>
+        <v>-1.0406789936690142</v>
       </c>
       <c r="X2">
-        <v>0.88196244663874324</v>
+        <v>0.8819624415107199</v>
       </c>
       <c r="Y2">
-        <v>4.0061136610874906</v>
+        <v>4.00611365538371</v>
       </c>
       <c r="Z2">
-        <v>2.3732662459456133</v>
+        <v>2.3732662421699988</v>
       </c>
       <c r="AA2">
-        <v>4.814104773730862</v>
+        <v>4.8141047423933836</v>
       </c>
       <c r="AB2">
-        <v>4.2635186758503245</v>
+        <v>4.2635186644967034</v>
       </c>
       <c r="AC2">
-        <v>0.93282480877648477</v>
+        <v>0.93282479897974591</v>
       </c>
       <c r="AD2">
-        <v>6.300259349055799</v>
+        <v>6.3002593357735597</v>
       </c>
       <c r="AE2">
-        <v>2.3770562280717562</v>
+        <v>2.3770562267262609</v>
       </c>
       <c r="AF2">
-        <v>2.8833389919695374</v>
+        <v>2.8833389854087899</v>
       </c>
       <c r="AG2">
-        <v>3.0946090280191161</v>
+        <v>3.0946090127898076</v>
       </c>
       <c r="AH2">
-        <v>2.9288457467828164</v>
+        <v>2.9288457409827782</v>
       </c>
       <c r="AI2">
-        <v>3.9830823372862962</v>
+        <v>3.9830823249003768</v>
       </c>
       <c r="AJ2">
-        <v>2.0818546514991909</v>
+        <v>2.0818546436858694</v>
       </c>
       <c r="AK2">
-        <v>2.8714399595689599</v>
+        <v>2.8714399550333924</v>
       </c>
       <c r="AL2">
-        <v>0.18967571725431007</v>
+        <v>0.18967570988582322</v>
       </c>
       <c r="AM2">
-        <v>2.9851839165038285</v>
+        <v>2.9851839106752087</v>
       </c>
       <c r="AN2">
-        <v>2.9253757588420517</v>
+        <v>2.9253757531571742</v>
       </c>
       <c r="AO2">
-        <v>5.1241043088729361</v>
+        <v>5.1241042956555205</v>
       </c>
       <c r="AP2">
-        <v>2.9274961564316868</v>
+        <v>2.9274961506641288</v>
       </c>
       <c r="AQ2">
-        <v>0.48185117084289025</v>
+        <v>0.48185115931078892</v>
       </c>
       <c r="AR2">
-        <v>4.7139689950028512</v>
+        <v>4.7139689936978817</v>
       </c>
       <c r="AS2">
-        <v>4.3987042602446547</v>
+        <v>4.3987042440075479</v>
       </c>
       <c r="AT2">
-        <v>2.442877028232568</v>
+        <v>2.44287702170885</v>
       </c>
       <c r="AU2">
-        <v>2.6219264031797951</v>
+        <v>2.6219264021755171</v>
       </c>
       <c r="AV2">
-        <v>2.5516900197338264</v>
+        <v>2.5516899974210663</v>
       </c>
       <c r="AW2">
-        <v>1.6310684615941131</v>
+        <v>1.6310684575358916</v>
       </c>
       <c r="AX2">
-        <v>4.7194704904619442</v>
+        <v>4.7194704808836914</v>
       </c>
       <c r="AY2">
-        <v>5.1810806998200363</v>
+        <v>5.181080692799477</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7365526926624835</v>
+        <v>1.7365526883256945</v>
       </c>
       <c r="C3">
-        <v>1.9905144474825369</v>
+        <v>1.9905144443703071</v>
       </c>
       <c r="D3">
-        <v>3.8020225029380086</v>
+        <v>3.8020224966941574</v>
       </c>
       <c r="E3">
-        <v>3.6088143962359509</v>
+        <v>3.6088143962979151</v>
       </c>
       <c r="F3">
-        <v>1.3696019240300592</v>
+        <v>1.3696019178080043</v>
       </c>
       <c r="G3">
-        <v>2.8015204614518905</v>
+        <v>2.8015204577116419</v>
       </c>
       <c r="H3">
-        <v>0.32542828200468465</v>
+        <v>0.32542827898825011</v>
       </c>
       <c r="I3">
-        <v>0.86447594378998083</v>
+        <v>0.86447594167456832</v>
       </c>
       <c r="J3">
-        <v>3.8519112627700935</v>
+        <v>3.8519112532359845</v>
       </c>
       <c r="K3">
-        <v>5.2934784008699332</v>
+        <v>5.2934783961665168</v>
       </c>
       <c r="L3">
-        <v>3.2624248993490985</v>
+        <v>3.2624248933887143</v>
       </c>
       <c r="M3">
-        <v>0.64215329098764973</v>
+        <v>0.6421525786208756</v>
       </c>
       <c r="N3">
-        <v>1.9448721698568625</v>
+        <v>1.944872166344664</v>
       </c>
       <c r="O3">
-        <v>-2.1706879724902839</v>
+        <v>-2.1706879758802655</v>
       </c>
       <c r="P3">
-        <v>3.3661952534306532</v>
+        <v>3.3661952470038852</v>
       </c>
       <c r="Q3">
-        <v>1.3452670425842066</v>
+        <v>1.3452670386436594</v>
       </c>
       <c r="R3">
-        <v>0.379833897309168</v>
+        <v>0.37983388905294763</v>
       </c>
       <c r="S3">
-        <v>3.3163436271817663</v>
+        <v>3.316343626610343</v>
       </c>
       <c r="T3">
-        <v>3.3157204015111748</v>
+        <v>3.3157203977684588</v>
       </c>
       <c r="U3">
-        <v>2.4519995466188518</v>
+        <v>2.4519995443060276</v>
       </c>
       <c r="V3">
-        <v>2.103870125458152</v>
+        <v>2.1038701230714234</v>
       </c>
       <c r="W3">
-        <v>-1.4814483789023336E-2</v>
+        <v>-1.4814491290034747E-2</v>
       </c>
       <c r="X3">
-        <v>-0.28258508768025675</v>
+        <v>-0.28258509175135027</v>
       </c>
       <c r="Y3">
-        <v>4.786884539587037</v>
+        <v>4.7868845317718645</v>
       </c>
       <c r="Z3">
-        <v>2.8115893817051467</v>
+        <v>2.8115893781904231</v>
       </c>
       <c r="AA3">
-        <v>4.9404386910693834</v>
+        <v>4.9404386958456188</v>
       </c>
       <c r="AB3">
-        <v>4.2497234243190141</v>
+        <v>4.2497234164766118</v>
       </c>
       <c r="AC3">
-        <v>5.2320770859246961</v>
+        <v>5.2320770851462219</v>
       </c>
       <c r="AD3">
-        <v>5.9880359041431213</v>
+        <v>5.9880358906060138</v>
       </c>
       <c r="AE3">
-        <v>3.9807426495665683</v>
+        <v>3.9807426454091979</v>
       </c>
       <c r="AF3">
-        <v>3.273748744782397</v>
+        <v>3.2737487378642092</v>
       </c>
       <c r="AG3">
-        <v>2.1037769518434666</v>
+        <v>2.1037769510792472</v>
       </c>
       <c r="AH3">
-        <v>1.7103255990293644</v>
+        <v>1.7103255871669414</v>
       </c>
       <c r="AI3">
-        <v>9.2433164698628989</v>
+        <v>9.2433164562023489</v>
       </c>
       <c r="AJ3">
-        <v>5.0118263410160377</v>
+        <v>5.0118263347906282</v>
       </c>
       <c r="AK3">
-        <v>4.0843534538495128</v>
+        <v>4.0843534497747456</v>
       </c>
       <c r="AL3">
-        <v>2.4881466578724689</v>
+        <v>2.4881466530815444</v>
       </c>
       <c r="AM3">
-        <v>2.8889582397019202</v>
+        <v>2.8889582240326792</v>
       </c>
       <c r="AN3">
-        <v>-1.0675389227275098</v>
+        <v>-1.0675389321264372</v>
       </c>
       <c r="AO3">
-        <v>5.427215139173291</v>
+        <v>5.4272151323050766</v>
       </c>
       <c r="AP3">
-        <v>1.2678438227559754</v>
+        <v>1.2678438141734349</v>
       </c>
       <c r="AQ3">
-        <v>2.017209854597223</v>
+        <v>2.017209848559359</v>
       </c>
       <c r="AR3">
-        <v>5.4268891338030398</v>
+        <v>5.4268891323761865</v>
       </c>
       <c r="AS3">
-        <v>3.5095152889308556</v>
+        <v>3.509515274997089</v>
       </c>
       <c r="AT3">
-        <v>3.6288947332958137</v>
+        <v>3.6288947195982058</v>
       </c>
       <c r="AU3">
-        <v>2.0003445890489653</v>
+        <v>2.0003445810805687</v>
       </c>
       <c r="AV3">
-        <v>1.9220088385652221</v>
+        <v>1.9220088189416955</v>
       </c>
       <c r="AW3">
-        <v>2.3754335714344341</v>
+        <v>2.3754335556601163</v>
       </c>
       <c r="AX3">
-        <v>2.3642742871966047</v>
+        <v>2.3642742751459225</v>
       </c>
       <c r="AY3">
-        <v>5.6497513159494295</v>
+        <v>5.6497513135899391</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.1650393465154725</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.9762126060515279</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.0389704186329514</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.8826287794857315</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.9608721309303676</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.1497416614765403</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.5636285894789783</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.057212982200292</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.0767349836944562</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.93307030119624046</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6129317945796352</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.82209233016123284</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.3721938322889886</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.9846122566735829</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.160271966602556</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.31835208973956419</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.77102397423476254</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.1073062901827848</v>
+        <v>2.5491765585049393</v>
       </c>
       <c r="T2">
         <v>3.4238426938272477</v>
@@ -588,55 +477,55 @@
         <v>2.3732662421699988</v>
       </c>
       <c r="AA2">
-        <v>4.8141047423933836</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.2635186644967034</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.93282479897974591</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.3002593357735597</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.3770562267262609</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.8833389854087899</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.0946090127898076</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.9288457409827782</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.9830823249003768</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.0818546436858694</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.8714399550333924</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.18967570988582322</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.9851839106752087</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.9253757531571742</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.1241042956555205</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.9274961506641288</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.48185115931078892</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.7139689936978817</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.7365526883256945</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.9905144443703071</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.8020224966941574</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.6088143962979151</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.3696019178080043</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.8015204577116419</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.32542827898825011</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.86447594167456832</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.8519112532359845</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.2934783961665168</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.2624248933887143</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6421525786208756</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.944872166344664</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.1706879758802655</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.3661952470038852</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.3452670386436594</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.37983388905294763</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.316343626610343</v>
@@ -743,55 +629,55 @@
         <v>2.8115893781904231</v>
       </c>
       <c r="AA3">
-        <v>4.9404386958456188</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.2497234164766118</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.2320770851462219</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.9880358906060138</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.9807426454091979</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.2737487378642092</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.1037769510792472</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.7103255871669414</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.2433164562023489</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.0118263347906282</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.0843534497747456</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.4881466530815444</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.8889582240326792</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.0675389321264372</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>5.4272151323050766</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2678438141734349</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.017209848559359</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.4268891323761865</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.1650393428932406</v>
-      </c>
       <c r="C2">
-        <v>1.4189181710950072</v>
-      </c>
-      <c r="D2">
-        <v>3.0389704279023606</v>
-      </c>
-      <c r="E2">
-        <v>4.8826287834640603</v>
+        <v>-0.77102397423476254</v>
       </c>
       <c r="F2">
         <v>1.9608721338408168</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7365526926624835</v>
+        <v>-0.90133221548553433</v>
       </c>
       <c r="C3">
-        <v>1.9905144474825369</v>
+        <v>0.37983388905294763</v>
       </c>
       <c r="D3">
-        <v>3.8020225029380086</v>
+        <v>-0.79127357551109223</v>
       </c>
       <c r="E3">
-        <v>3.6088143962359509</v>
+        <v>2.2441822021855384</v>
       </c>
       <c r="F3">
         <v>1.3696019240300592</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.1650393428932406</v>
-      </c>
-      <c r="C2">
-        <v>1.4189181710950072</v>
+        <v>2.1937118031827127</v>
       </c>
       <c r="D2">
-        <v>3.0389704279023606</v>
-      </c>
-      <c r="E2">
-        <v>4.8826287834640603</v>
+        <v>2.9851839106752087</v>
       </c>
       <c r="F2">
         <v>1.9608721338408168</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.7365526926624835</v>
+        <v>1.944872166344664</v>
       </c>
       <c r="C3">
-        <v>1.9905144474825369</v>
+        <v>-0.90133221548553433</v>
       </c>
       <c r="D3">
-        <v>3.8020225029380086</v>
+        <v>2.8889582240326792</v>
       </c>
       <c r="E3">
-        <v>4.9137391149117633</v>
+        <v>-0.79127357551109223</v>
       </c>
       <c r="F3">
         <v>1.3696019240300592</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.1650393465154725</v>
+      </c>
+      <c r="C2">
+        <v>1.4189181677073286</v>
+      </c>
+      <c r="D2">
+        <v>3.0389704186329514</v>
+      </c>
+      <c r="E2">
+        <v>4.8826287794857315</v>
+      </c>
+      <c r="F2">
+        <v>1.9608721309303676</v>
+      </c>
+      <c r="G2">
+        <v>1.9843015332119778</v>
+      </c>
+      <c r="H2">
+        <v>1.5636285894789783</v>
+      </c>
+      <c r="I2">
+        <v>2.8502797415060401</v>
+      </c>
+      <c r="J2">
+        <v>3.0767349836944562</v>
+      </c>
+      <c r="K2">
+        <v>0.93307030119624046</v>
+      </c>
+      <c r="L2">
+        <v>0.84594673367610007</v>
+      </c>
+      <c r="M2">
+        <v>0.5305905916163588</v>
+      </c>
+      <c r="N2">
         <v>2.1937118031827127</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.4700081302766339</v>
+      </c>
+      <c r="Q2">
+        <v>0.31835208973956419</v>
+      </c>
+      <c r="R2">
+        <v>-0.77102397423476254</v>
+      </c>
+      <c r="T2">
+        <v>2.8002834189167451</v>
+      </c>
+      <c r="U2">
+        <v>0.49168942105374952</v>
+      </c>
+      <c r="V2">
+        <v>2.0228871536960504</v>
+      </c>
+      <c r="W2">
+        <v>-1.0406789936690142</v>
+      </c>
+      <c r="X2">
+        <v>0.8819624415107199</v>
+      </c>
+      <c r="Y2">
+        <v>4.00611365538371</v>
+      </c>
+      <c r="Z2">
+        <v>2.3732662421699988</v>
+      </c>
+      <c r="AA2">
+        <v>4.8141047423933836</v>
+      </c>
+      <c r="AB2">
+        <v>4.2635186644967034</v>
+      </c>
+      <c r="AC2">
+        <v>0.93282479897974591</v>
+      </c>
+      <c r="AD2">
+        <v>6.3002593357735597</v>
+      </c>
+      <c r="AE2">
+        <v>2.3770562267262609</v>
+      </c>
+      <c r="AF2">
+        <v>2.8833389854087899</v>
+      </c>
+      <c r="AG2">
+        <v>3.0946090127898076</v>
+      </c>
+      <c r="AH2">
+        <v>2.9288457409827782</v>
+      </c>
+      <c r="AI2">
+        <v>3.9830823249003768</v>
+      </c>
+      <c r="AJ2">
+        <v>2.0818546436858694</v>
+      </c>
+      <c r="AK2">
+        <v>2.8714399550333924</v>
+      </c>
+      <c r="AL2">
+        <v>0.18967570988582322</v>
+      </c>
+      <c r="AM2">
         <v>2.9851839106752087</v>
       </c>
-      <c r="F2">
-        <v>1.9608721338408168</v>
-      </c>
-      <c r="G2">
-        <v>1.984301533395415</v>
-      </c>
-      <c r="H2">
-        <v>1.5636285932544958</v>
-      </c>
-      <c r="I2">
-        <v>2.850279739250996</v>
-      </c>
-      <c r="J2">
-        <v>3.0767349925495577</v>
-      </c>
-      <c r="K2">
-        <v>0.93307030290619841</v>
-      </c>
-      <c r="L2">
-        <v>0.84594673991192604</v>
-      </c>
-      <c r="M2">
-        <v>0.5305905900152923</v>
-      </c>
-      <c r="N2">
-        <v>2.1937118071040045</v>
-      </c>
-      <c r="P2">
-        <v>3.4700081295509189</v>
-      </c>
-      <c r="Q2">
-        <v>0.31835209335919346</v>
-      </c>
-      <c r="R2">
-        <v>-0.77102396983930832</v>
-      </c>
-      <c r="T2">
-        <v>2.8002834176379428</v>
-      </c>
-      <c r="U2">
-        <v>0.49168942622972073</v>
-      </c>
-      <c r="V2">
-        <v>2.0228871597408946</v>
-      </c>
-      <c r="W2">
-        <v>-1.0406789847405933</v>
-      </c>
-      <c r="X2">
-        <v>0.88196244663874324</v>
-      </c>
-      <c r="Y2">
-        <v>4.0061136610874906</v>
-      </c>
-      <c r="Z2">
-        <v>2.3732662459456133</v>
-      </c>
-      <c r="AA2">
-        <v>4.814104773730862</v>
-      </c>
-      <c r="AB2">
-        <v>4.2635186758503245</v>
-      </c>
-      <c r="AC2">
-        <v>0.93282480877648477</v>
-      </c>
-      <c r="AD2">
-        <v>6.300259349055799</v>
-      </c>
-      <c r="AE2">
-        <v>2.3770562280717562</v>
-      </c>
-      <c r="AF2">
-        <v>2.8833389919695374</v>
-      </c>
-      <c r="AG2">
-        <v>3.0946090280191161</v>
-      </c>
-      <c r="AH2">
-        <v>2.9288457467828164</v>
-      </c>
-      <c r="AI2">
-        <v>3.9830823372862962</v>
-      </c>
-      <c r="AJ2">
-        <v>2.0818546514991909</v>
-      </c>
-      <c r="AK2">
-        <v>2.8714399595689599</v>
-      </c>
-      <c r="AL2">
-        <v>0.18967571725431007</v>
-      </c>
-      <c r="AM2">
-        <v>2.9851839165038285</v>
-      </c>
       <c r="AO2">
-        <v>5.1241043088729361</v>
+        <v>5.1241042956555205</v>
       </c>
       <c r="AP2">
-        <v>3.3290003343682852</v>
+        <v>3.3290003296266475</v>
       </c>
       <c r="AR2">
-        <v>4.7139689950028512</v>
+        <v>4.7139689936978817</v>
       </c>
       <c r="AS2">
-        <v>4.3987042602446547</v>
+        <v>4.3987042440075479</v>
       </c>
       <c r="AT2">
-        <v>2.442877028232568</v>
+        <v>2.44287702170885</v>
       </c>
       <c r="AU2">
-        <v>1.4914555616196472</v>
+        <v>1.4914555633854882</v>
       </c>
       <c r="AV2">
-        <v>2.5516900197338264</v>
+        <v>2.5516899974210663</v>
       </c>
       <c r="AW2">
-        <v>1.6310684615941131</v>
+        <v>1.6310684575358916</v>
       </c>
       <c r="AX2">
-        <v>4.7194704904619442</v>
+        <v>4.7194704808836914</v>
       </c>
       <c r="AY2">
-        <v>5.1810806998200363</v>
+        <v>5.181080692799477</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.7365526883256945</v>
+      </c>
+      <c r="C3">
+        <v>1.9905144443703071</v>
+      </c>
+      <c r="D3">
+        <v>3.8020224966941574</v>
+      </c>
+      <c r="E3">
+        <v>4.9137391150344092</v>
+      </c>
+      <c r="F3">
+        <v>1.3696019178080043</v>
+      </c>
+      <c r="G3">
+        <v>2.8015204577116419</v>
+      </c>
+      <c r="H3">
+        <v>0.32542827898825011</v>
+      </c>
+      <c r="I3">
+        <v>0.86447594167456832</v>
+      </c>
+      <c r="J3">
+        <v>3.8519112532359845</v>
+      </c>
+      <c r="K3">
+        <v>4.5623516973478928</v>
+      </c>
+      <c r="L3">
+        <v>3.2624248933887143</v>
+      </c>
+      <c r="M3">
+        <v>-0.19480213293242818</v>
+      </c>
+      <c r="N3">
         <v>1.944872166344664</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-0.90133221548553433</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.3661952470038852</v>
+      </c>
+      <c r="Q3">
+        <v>1.3452670386436594</v>
+      </c>
+      <c r="R3">
+        <v>0.37983388905294763</v>
+      </c>
+      <c r="S3">
+        <v>3.316343626610343</v>
+      </c>
+      <c r="T3">
+        <v>3.3157203977684588</v>
+      </c>
+      <c r="U3">
+        <v>2.4519995443060276</v>
+      </c>
+      <c r="V3">
+        <v>2.4401365346250343</v>
+      </c>
+      <c r="W3">
+        <v>-1.4814491290034747E-2</v>
+      </c>
+      <c r="X3">
+        <v>-0.28258509175135027</v>
+      </c>
+      <c r="Y3">
+        <v>4.7868845317718645</v>
+      </c>
+      <c r="Z3">
+        <v>2.8115893781904231</v>
+      </c>
+      <c r="AA3">
+        <v>4.9404386958456188</v>
+      </c>
+      <c r="AB3">
+        <v>4.2497234164766118</v>
+      </c>
+      <c r="AC3">
+        <v>5.2320770851462219</v>
+      </c>
+      <c r="AD3">
+        <v>5.9880358906060138</v>
+      </c>
+      <c r="AE3">
+        <v>3.9807426454091979</v>
+      </c>
+      <c r="AF3">
+        <v>3.2737487378642092</v>
+      </c>
+      <c r="AG3">
+        <v>2.1037769510792472</v>
+      </c>
+      <c r="AH3">
+        <v>1.7103255871669414</v>
+      </c>
+      <c r="AI3">
+        <v>4.3225595472096874</v>
+      </c>
+      <c r="AJ3">
+        <v>5.0118263347906282</v>
+      </c>
+      <c r="AK3">
+        <v>4.0843534497747456</v>
+      </c>
+      <c r="AL3">
+        <v>2.4881466530815444</v>
+      </c>
+      <c r="AM3">
         <v>2.8889582240326792</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-0.79127357551109223</v>
       </c>
-      <c r="F3">
-        <v>1.3696019240300592</v>
-      </c>
-      <c r="G3">
-        <v>2.8015204614518905</v>
-      </c>
-      <c r="H3">
-        <v>0.32542828200468465</v>
-      </c>
-      <c r="I3">
-        <v>0.86447594378998083</v>
-      </c>
-      <c r="J3">
-        <v>3.8519112627700935</v>
-      </c>
-      <c r="K3">
-        <v>4.5623517034856818</v>
-      </c>
-      <c r="L3">
-        <v>3.2624248993490985</v>
-      </c>
-      <c r="M3">
-        <v>-0.19479558966795896</v>
-      </c>
-      <c r="N3">
-        <v>1.9448721698568625</v>
-      </c>
-      <c r="O3">
-        <v>-0.90133220932267832</v>
-      </c>
-      <c r="P3">
-        <v>3.3661952534306532</v>
-      </c>
-      <c r="Q3">
-        <v>1.3452670425842066</v>
-      </c>
-      <c r="R3">
-        <v>0.379833897309168</v>
-      </c>
-      <c r="S3">
-        <v>3.3163436271817663</v>
-      </c>
-      <c r="T3">
-        <v>3.3157204015111748</v>
-      </c>
-      <c r="U3">
-        <v>2.4519995466188518</v>
-      </c>
-      <c r="V3">
-        <v>2.4401365358731284</v>
-      </c>
-      <c r="W3">
-        <v>-1.4814483789023336E-2</v>
-      </c>
-      <c r="X3">
-        <v>-0.28258508768025675</v>
-      </c>
-      <c r="Y3">
-        <v>4.786884539587037</v>
-      </c>
-      <c r="Z3">
-        <v>2.8115893817051467</v>
-      </c>
-      <c r="AA3">
-        <v>4.9404386910693834</v>
-      </c>
-      <c r="AB3">
-        <v>4.2497234243190141</v>
-      </c>
-      <c r="AC3">
-        <v>5.2320770859246961</v>
-      </c>
-      <c r="AD3">
-        <v>5.9880359041431213</v>
-      </c>
-      <c r="AE3">
-        <v>3.9807426495665683</v>
-      </c>
-      <c r="AF3">
-        <v>3.273748744782397</v>
-      </c>
-      <c r="AG3">
-        <v>2.1037769518434666</v>
-      </c>
-      <c r="AH3">
-        <v>1.7103255990293644</v>
-      </c>
-      <c r="AI3">
-        <v>4.3225595628670552</v>
-      </c>
-      <c r="AJ3">
-        <v>5.0118263410160377</v>
-      </c>
-      <c r="AK3">
-        <v>4.0843534538495128</v>
-      </c>
-      <c r="AL3">
-        <v>2.4881466578724689</v>
-      </c>
-      <c r="AM3">
-        <v>2.8889582397019202</v>
-      </c>
-      <c r="AN3">
-        <v>-0.79127356413318939</v>
-      </c>
       <c r="AO3">
-        <v>5.427215139173291</v>
+        <v>5.4272151323050766</v>
       </c>
       <c r="AP3">
-        <v>1.2678438227559754</v>
+        <v>1.2678438141734349</v>
       </c>
       <c r="AQ3">
-        <v>2.2441822038103485</v>
+        <v>2.2441822021855384</v>
       </c>
       <c r="AR3">
-        <v>5.4268891338030398</v>
+        <v>5.4268891323761865</v>
       </c>
       <c r="AS3">
-        <v>3.5095152889308556</v>
+        <v>3.509515274997089</v>
       </c>
       <c r="AT3">
-        <v>3.6288947332958137</v>
+        <v>3.6288947195982058</v>
       </c>
       <c r="AU3">
-        <v>2.2839775985849258</v>
+        <v>2.2839775961586599</v>
       </c>
       <c r="AV3">
-        <v>1.9220088385652221</v>
+        <v>1.9220088189416955</v>
       </c>
       <c r="AW3">
-        <v>2.3754335714344341</v>
+        <v>2.3754335556601163</v>
       </c>
       <c r="AX3">
-        <v>2.3642742871966047</v>
+        <v>2.3642742751459225</v>
       </c>
       <c r="AY3">
-        <v>5.6497513159494295</v>
+        <v>5.6497513135899391</v>
       </c>
     </row>
   </sheetData>
